--- a/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results_Opposite.xlsx
+++ b/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results_Opposite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro\Desktop\Pietro\Politecnico\Tesi\Thesis-Code\SimulatedData-new\Exogeneus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C381B70-20AD-4F73-BCE2-373E9F38FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92412C6-BC96-43E9-8DD5-501E4264CB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1312,10 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
+      <c r="L23">
+        <f>(E4+E40+E76)/3</f>
+        <v>3.4365E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1338,6 +1342,10 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
+      <c r="L24">
+        <f>(E5+E41+E77)/3</f>
+        <v>6.588333333333341E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1387,6 +1395,10 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
+      <c r="L26">
+        <f>(E13+E49+E85)/3</f>
+        <v>6.2024999999999997E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1413,6 +1425,10 @@
       <c r="K27" t="s">
         <v>18</v>
       </c>
+      <c r="L27">
+        <f>(E14+E50+E86)/3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1439,6 +1455,10 @@
       <c r="K29" t="s">
         <v>19</v>
       </c>
+      <c r="L29">
+        <f>(E22+E58+E94)/3</f>
+        <v>9.0630000000000002E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1464,6 +1484,10 @@
       </c>
       <c r="K30" t="s">
         <v>20</v>
+      </c>
+      <c r="L30">
+        <f>(E23+E59+E95)/3</f>
+        <v>8.549999999999976E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
